--- a/exports/tickets_Test.xlsx
+++ b/exports/tickets_Test.xlsx
@@ -431,70 +431,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2470277000001</t>
+          <t>9576786000001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2470277000002</t>
+          <t>9576786000002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2470277000003</t>
+          <t>9576786000003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2470277000004</t>
+          <t>9576786000004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2470277000005</t>
+          <t>9576786000005</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2470277000006</t>
+          <t>9576786000006</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2470277000007</t>
+          <t>9576786000007</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2470277000008</t>
+          <t>9576786000008</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2470277000009</t>
+          <t>9576786000009</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2470277000010</t>
+          <t>9576786000010</t>
         </is>
       </c>
     </row>
